--- a/proj/ProjectList.xlsx
+++ b/proj/ProjectList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/ppong001_e_ntu_edu_sg/Documents/Attachments/Y1S2/SC2002/Assignment/SC2002_all classes/SC2002_grp_proj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pip Hui\Documents\GitHub\sc2002-project\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{021DB320-1F74-47EA-8228-03A02A2055DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E72D00B-1459-4C4A-BAFD-F731A359A329}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0802F6-2DB6-46AA-BA17-E31FEA576FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Project Name</t>
   </si>
@@ -82,6 +82,45 @@
   </si>
   <si>
     <t>Daniel,Emily</t>
+  </si>
+  <si>
+    <t>Serenity Grove</t>
+  </si>
+  <si>
+    <t>Verdant Rise</t>
+  </si>
+  <si>
+    <t>Coastal Haven</t>
+  </si>
+  <si>
+    <t>Skyline Nest</t>
+  </si>
+  <si>
+    <t>Amber Heights</t>
+  </si>
+  <si>
+    <t>Tampines</t>
+  </si>
+  <si>
+    <t>Bukit Panjang</t>
+  </si>
+  <si>
+    <t>Pasir Ris</t>
+  </si>
+  <si>
+    <t>Punggol</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Kelly</t>
   </si>
 </sst>
 </file>
@@ -135,10 +174,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,20 +439,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="17.5546875" customWidth="1"/>
     <col min="13" max="13" width="29.6640625" customWidth="1"/>
   </cols>
@@ -489,10 +522,10 @@
         <v>450000</v>
       </c>
       <c r="I2" s="1">
-        <v>45703</v>
+        <v>45762</v>
       </c>
       <c r="J2" s="1">
-        <v>45736</v>
+        <v>45797</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -502,6 +535,196 @@
       </c>
       <c r="M2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>300000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>400000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45767</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45798</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>250000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>325000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45698</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45738</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>375000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>450000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45777</v>
+      </c>
+      <c r="J5" s="1">
+        <v>45800</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>600000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>700000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45748</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45801</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>500000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>600000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45759</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45802</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
